--- a/biology/Médecine/Altéplase/Altéplase.xlsx
+++ b/biology/Médecine/Altéplase/Altéplase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alt%C3%A9plase</t>
+          <t>Altéplase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'altéplase (Actilyse) est une forme recombinante de l'activateur tissulaire du plasminogène utilisé comme médicament thrombolytique lors d'une embolie pulmonaire, d'un infarctus du myocarde ou d'un accident vasculaire cérébral ischémique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alt%C3%A9plase</t>
+          <t>Altéplase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Dans l'infarctus du myocarde</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son utilisation dans l'infarctus du myocarde date de la fin des années 1980[1], où il remplace la streptokinase, démontrant un gain sur la mortalité[2]. Son emploi reste toutefois limitée à certains cas, l'angioplastie coronaire s'avérant supérieur à la fibrinolyse lorsqu'elles sont toutes deux réalisées dans les premières heures de l'infarctus[3]. L'altéplase est actuellement réservé au cas où le patient se trouve trop loin d'un centre d'angioplastie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son utilisation dans l'infarctus du myocarde date de la fin des années 1980, où il remplace la streptokinase, démontrant un gain sur la mortalité. Son emploi reste toutefois limitée à certains cas, l'angioplastie coronaire s'avérant supérieur à la fibrinolyse lorsqu'elles sont toutes deux réalisées dans les premières heures de l'infarctus. L'altéplase est actuellement réservé au cas où le patient se trouve trop loin d'un centre d'angioplastie.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alt%C3%A9plase</t>
+          <t>Altéplase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Dans l'accident vasculaire cérébral</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Utilisée dans les six premières heures d'un accident vasculaire cérébral, l'altéplase améliore le pronostic fonctionnel mais ne joue pas sur la mortalité[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Utilisée dans les six premières heures d'un accident vasculaire cérébral, l'altéplase améliore le pronostic fonctionnel mais ne joue pas sur la mortalité.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alt%C3%A9plase</t>
+          <t>Altéplase</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Dans l'embolie pulmonaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est réservée aux formes graves d'embolie pulmonaire, le bénéfice semblant peu évident en cas de formes de gravité intermédiaire[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est réservée aux formes graves d'embolie pulmonaire, le bénéfice semblant peu évident en cas de formes de gravité intermédiaire.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alt%C3%A9plase</t>
+          <t>Altéplase</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Médicament dérivé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La ténectéplase ne diffère de l'altéplase que par quelques acides aminés. Elle est aussi utilisée comme fibrinolytique, avec l'avantage d'une administration simplifiée (intraveineuse directe versus perfusion continue).
 </t>
